--- a/海王新粤排档.xlsx
+++ b/海王新粤排档.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="海王新粤排档" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="海王新粤排档" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -871,6 +871,74 @@
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1135,7 +1203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX218"/>
+  <dimension ref="A1:AX233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B176" activePane="bottomRight" state="frozen"/>
@@ -43995,7 +44063,6 @@
           <t>8040</t>
         </is>
       </c>
-      <c r="T218" t="inlineStr"/>
       <c r="U218" t="inlineStr">
         <is>
           <t>2</t>
@@ -44094,6 +44161,2422 @@
       <c r="AU218" t="inlineStr">
         <is>
           <t>488.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>3,646</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA219" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF219" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG219" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH219" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI219" t="inlineStr">
+        <is>
+          <t>4960.0</t>
+        </is>
+      </c>
+      <c r="AJ219" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK219" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AL219" t="inlineStr">
+        <is>
+          <t>3222.0</t>
+        </is>
+      </c>
+      <c r="AM219" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN219" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AO219" t="inlineStr">
+        <is>
+          <t>3420.0</t>
+        </is>
+      </c>
+      <c r="AS219" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6-7人餐[488.0]</t>
+        </is>
+      </c>
+      <c r="AT219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU219" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>3,646</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA220" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF220" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG220" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH220" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI220" t="inlineStr">
+        <is>
+          <t>4960.0</t>
+        </is>
+      </c>
+      <c r="AJ220" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK220" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AL220" t="inlineStr">
+        <is>
+          <t>3222.0</t>
+        </is>
+      </c>
+      <c r="AM220" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN220" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AO220" t="inlineStr">
+        <is>
+          <t>3420.0</t>
+        </is>
+      </c>
+      <c r="AS220" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6-7人餐[488.0]</t>
+        </is>
+      </c>
+      <c r="AT220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU220" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>3,646</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA221" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF221" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG221" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH221" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI221" t="inlineStr">
+        <is>
+          <t>4960.0</t>
+        </is>
+      </c>
+      <c r="AJ221" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK221" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AL221" t="inlineStr">
+        <is>
+          <t>3222.0</t>
+        </is>
+      </c>
+      <c r="AM221" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN221" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AO221" t="inlineStr">
+        <is>
+          <t>3420.0</t>
+        </is>
+      </c>
+      <c r="AS221" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6-7人餐[488.0]</t>
+        </is>
+      </c>
+      <c r="AT221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU221" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>3,646</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA222" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF222" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG222" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH222" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI222" t="inlineStr">
+        <is>
+          <t>4960.0</t>
+        </is>
+      </c>
+      <c r="AJ222" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK222" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AL222" t="inlineStr">
+        <is>
+          <t>3222.0</t>
+        </is>
+      </c>
+      <c r="AM222" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN222" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AO222" t="inlineStr">
+        <is>
+          <t>3420.0</t>
+        </is>
+      </c>
+      <c r="AS222" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6-7人餐[488.0]</t>
+        </is>
+      </c>
+      <c r="AT222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU222" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>2,155</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>7778.00</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>7778</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>7778</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA223" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AF223" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG223" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH223" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AI223" t="inlineStr">
+        <is>
+          <t>2480.0</t>
+        </is>
+      </c>
+      <c r="AJ223" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK223" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AL223" t="inlineStr">
+        <is>
+          <t>2148.0</t>
+        </is>
+      </c>
+      <c r="AM223" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN223" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AO223" t="inlineStr">
+        <is>
+          <t>3150.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>3,861</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>7050.00</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z224" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA224" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF224" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG224" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH224" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AI224" t="inlineStr">
+        <is>
+          <t>1488.0</t>
+        </is>
+      </c>
+      <c r="AJ224" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK224" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AL224" t="inlineStr">
+        <is>
+          <t>3222.0</t>
+        </is>
+      </c>
+      <c r="AM224" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN224" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AO224" t="inlineStr">
+        <is>
+          <t>2340.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>3,861</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>7050.00</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y225" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z225" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA225" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF225" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG225" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH225" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AI225" t="inlineStr">
+        <is>
+          <t>1488.0</t>
+        </is>
+      </c>
+      <c r="AJ225" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK225" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AL225" t="inlineStr">
+        <is>
+          <t>3222.0</t>
+        </is>
+      </c>
+      <c r="AM225" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN225" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AO225" t="inlineStr">
+        <is>
+          <t>2340.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>3,861</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>7050.00</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z226" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA226" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF226" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG226" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH226" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AI226" t="inlineStr">
+        <is>
+          <t>1488.0</t>
+        </is>
+      </c>
+      <c r="AJ226" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK226" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AL226" t="inlineStr">
+        <is>
+          <t>3222.0</t>
+        </is>
+      </c>
+      <c r="AM226" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN226" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AO226" t="inlineStr">
+        <is>
+          <t>2340.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>3,861</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>7050.00</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z227" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA227" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF227" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG227" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH227" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AI227" t="inlineStr">
+        <is>
+          <t>1488.0</t>
+        </is>
+      </c>
+      <c r="AJ227" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK227" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AL227" t="inlineStr">
+        <is>
+          <t>3222.0</t>
+        </is>
+      </c>
+      <c r="AM227" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN227" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AO227" t="inlineStr">
+        <is>
+          <t>2340.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>3,861</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>7050.00</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y228" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z228" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA228" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF228" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG228" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH228" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AI228" t="inlineStr">
+        <is>
+          <t>1488.0</t>
+        </is>
+      </c>
+      <c r="AJ228" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK228" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AL228" t="inlineStr">
+        <is>
+          <t>3222.0</t>
+        </is>
+      </c>
+      <c r="AM228" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN228" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AO228" t="inlineStr">
+        <is>
+          <t>2340.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>3,861</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>7050.00</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z229" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA229" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF229" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG229" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH229" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AI229" t="inlineStr">
+        <is>
+          <t>1488.0</t>
+        </is>
+      </c>
+      <c r="AJ229" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK229" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AL229" t="inlineStr">
+        <is>
+          <t>3222.0</t>
+        </is>
+      </c>
+      <c r="AM229" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN229" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AO229" t="inlineStr">
+        <is>
+          <t>2340.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>3,861</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>7050.00</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z230" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA230" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF230" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG230" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH230" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AI230" t="inlineStr">
+        <is>
+          <t>1488.0</t>
+        </is>
+      </c>
+      <c r="AJ230" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK230" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AL230" t="inlineStr">
+        <is>
+          <t>3222.0</t>
+        </is>
+      </c>
+      <c r="AM230" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN230" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AO230" t="inlineStr">
+        <is>
+          <t>2340.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>2,558</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y231" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA231" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF231" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG231" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH231" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI231" t="inlineStr">
+        <is>
+          <t>4960.0</t>
+        </is>
+      </c>
+      <c r="AJ231" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK231" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AL231" t="inlineStr">
+        <is>
+          <t>4296.0</t>
+        </is>
+      </c>
+      <c r="AM231" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN231" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AO231" t="inlineStr">
+        <is>
+          <t>1530.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>2,558</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y232" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA232" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF232" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG232" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH232" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI232" t="inlineStr">
+        <is>
+          <t>4960.0</t>
+        </is>
+      </c>
+      <c r="AJ232" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK232" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AL232" t="inlineStr">
+        <is>
+          <t>4296.0</t>
+        </is>
+      </c>
+      <c r="AM232" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN232" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AO232" t="inlineStr">
+        <is>
+          <t>1530.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>2,558</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA233" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF233" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG233" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AH233" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI233" t="inlineStr">
+        <is>
+          <t>4960.0</t>
+        </is>
+      </c>
+      <c r="AJ233" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AK233" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AL233" t="inlineStr">
+        <is>
+          <t>4296.0</t>
+        </is>
+      </c>
+      <c r="AM233" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AN233" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AO233" t="inlineStr">
+        <is>
+          <t>1530.0</t>
         </is>
       </c>
     </row>
